--- a/Aluminum/6 MONTH/20226/Aluminum_for_arima_test_plot.xlsx
+++ b/Aluminum/6 MONTH/20226/Aluminum_for_arima_test_plot.xlsx
@@ -1750,7 +1750,7 @@
         <v>44712</v>
       </c>
       <c r="B124">
-        <v>2892.5</v>
+        <v>2855</v>
       </c>
       <c r="C124">
         <v>2864.55862590927</v>
